--- a/Qantum Time-Card/РЕЗОНАТОРЫ/OCXO Daughtercard/BOM/OCXO_DaughterCard_NoOscillator.xlsx
+++ b/Qantum Time-Card/РЕЗОНАТОРЫ/OCXO Daughtercard/BOM/OCXO_DaughterCard_NoOscillator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julianstj\Desktop\WorkNotes\Projects\PTP\Time-Appliance-Project-master\Time-Card\OSC\OCXO Daughtercard\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\QUANTUM\QUANTUM\QUANTUM\Qantum Time-Card\РЕЗОНАТОРЫ\OCXO Daughtercard\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{731D64FA-4168-440C-B4C7-525E1F46830F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7B7BAB-4546-456A-B26A-4FDAD7670C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{E42587F4-630D-400D-9E5F-2BAA80A4D32D}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="20976" windowHeight="10956" xr2:uid="{E42587F4-630D-400D-9E5F-2BAA80A4D32D}"/>
   </bookViews>
   <sheets>
     <sheet name="OCXO_DaughterCard_NoOscillator" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -512,9 +512,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -552,7 +552,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -658,7 +658,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -815,7 +815,10 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.44140625" customWidth="1"/>
-    <col min="2" max="6" width="19" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
